--- a/MA120/probability/Distribution.xlsx
+++ b/MA120/probability/Distribution.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulc_000\Documents\homework\chaos-beast\MA120\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\chaos-beast\MA120\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,109 +482,109 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="L2" s="1">
         <f>J2*K2</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>POWER(J2,2)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <f>M2*K2</f>
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0.3</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L12" si="0">J3*K3</f>
-        <v>2.6999999999999997</v>
+        <f t="shared" ref="L3:L7" si="0">J3*K3</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M12" si="1">POWER(J3,2)</f>
-        <v>81</v>
+        <f t="shared" ref="M3:M7" si="1">POWER(J3,2)</f>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="2">M3*K3</f>
-        <v>24.3</v>
+        <f t="shared" ref="N3:N7" si="2">M3*K3</f>
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>0.16</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>0.15</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>1.65</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>18.149999999999999</v>
+        <v>1.0619999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>2.2800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>27.36</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
         <v>12</v>
       </c>
       <c r="R6">
-        <f>L8</f>
-        <v>9.8300000000000018</v>
+        <f>L11</f>
+        <v>1.4700000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -611,28 +611,16 @@
       </c>
       <c r="R7">
         <f>POWER(R6, 2)</f>
-        <v>96.62890000000003</v>
+        <v>2.1609000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" ref="K8:M8" si="3">SUM(K2:K7)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="3"/>
-        <v>9.8300000000000018</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="3"/>
-        <v>510</v>
       </c>
       <c r="N8" s="1">
         <f>SUM(N2:N7)</f>
-        <v>98.61</v>
+        <v>2.9119999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -641,20 +629,30 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <f>SQRT(N8 -R7)</f>
-        <v>1.4075155416548584</v>
+        <v>0.8666602563865492</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="1">
+        <f>SUM(K2:K10)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SUM(L2:L10)</f>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <f>SUM(M2:M10)</f>
+        <v>14</v>
+      </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
